--- a/RF point.xlsx
+++ b/RF point.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(...BackupDdrive)\...Introduction to RF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(...Github)IntroToRF\IntroToRF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC51D9-E67E-4B37-A321-3419197115D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EE979-550B-47A8-B0B0-DA40CD0D59F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11352" xr2:uid="{DE088BC7-489A-46CF-BC62-DC5C667CE26B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE088BC7-489A-46CF-BC62-DC5C667CE26B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
   <si>
     <t>Mon</t>
   </si>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA7B7B9-A7D0-4BDA-8927-A179195D62FB}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,9 +659,6 @@
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -673,9 +670,6 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -687,9 +681,6 @@
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -699,9 +690,6 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -716,9 +704,6 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
         <v>6</v>
       </c>
     </row>
